--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2490,7 +2490,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="28"/>
       <c r="N17" t="str">
-        <f t="shared" ref="N3:N21" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
+        <f t="shared" ref="N17:N21" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
         <v xml:space="preserve">        </v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,7 +2966,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="28"/>
       <c r="N17" t="str">
-        <f t="shared" ref="N17:N35" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
+        <f t="shared" ref="N17:N21" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
         <v xml:space="preserve">        </v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,7 +3441,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="28"/>
       <c r="N17" t="str">
-        <f t="shared" ref="N17:N35" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
+        <f t="shared" ref="N17:N21" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
         <v xml:space="preserve">        </v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
   <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,7 +3915,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="28"/>
       <c r="N17" t="str">
-        <f t="shared" ref="N17:N35" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
+        <f t="shared" ref="N17:N21" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
         <v xml:space="preserve">        </v>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -4389,7 +4389,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="28"/>
       <c r="N17" t="str">
-        <f t="shared" ref="N17:N35" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
+        <f t="shared" ref="N17:N21" si="1">_xlfn.CONCAT(IF(ISBLANK(D17),"",$D$1), " ", IF(ISBLANK(E17),"",$E$1), " ", IF(ISBLANK(F17),"",$F$1), " ", IF(ISBLANK(G17),"",$G$1), " ", IF(ISBLANK(H17),"",$H$1), " ", IF(ISBLANK(I17),"",$I$1), " ", IF(ISBLANK(J17),"",$J$1), " ", IF(ISBLANK(K17),"",$K$1), " ", IF(ISBLANK(L17),"",$L$1))</f>
         <v xml:space="preserve">        </v>
       </c>
     </row>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="60">
   <si>
     <t>ALU</t>
   </si>
@@ -1615,7 +1615,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,14 +1891,12 @@
       <c r="G13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
       <c r="K13" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>3 4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -2084,9 +2082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="75">
   <si>
     <t>ALU</t>
   </si>
@@ -210,6 +210,51 @@
   </si>
   <si>
     <t>REG TO MEM</t>
+  </si>
+  <si>
+    <t>C=Result</t>
+  </si>
+  <si>
+    <t>A=Dest Reg</t>
+  </si>
+  <si>
+    <t>F=ALU Op</t>
+  </si>
+  <si>
+    <t>A=Src Reg</t>
+  </si>
+  <si>
+    <t>A=ALU InA</t>
+  </si>
+  <si>
+    <t>B=ALU InB</t>
+  </si>
+  <si>
+    <t>B=Mem Addr</t>
+  </si>
+  <si>
+    <t>K=Constant</t>
+  </si>
+  <si>
+    <t>N=inv. ALUa/b</t>
+  </si>
+  <si>
+    <t>Conditional Flags</t>
+  </si>
+  <si>
+    <t>N=Negative</t>
+  </si>
+  <si>
+    <t>Z=Zero</t>
+  </si>
+  <si>
+    <t>P=Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>B=Dest Reg</t>
   </si>
 </sst>
 </file>
@@ -632,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,6 +842,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,22 +1170,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U21"/>
+  <dimension ref="A2:AA21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="3.625" style="1"/>
-    <col min="20" max="20" width="20.625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="55" width="8.25" customWidth="1"/>
+    <col min="3" max="18" width="3.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.625" style="17" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="61" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>15</v>
       </c>
@@ -1176,14 +1239,14 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1238,14 +1301,29 @@
       <c r="R3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1300,14 +1378,21 @@
       <c r="R4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="57"/>
+      <c r="Z4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1362,14 +1447,21 @@
       <c r="R5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="58"/>
+      <c r="Z5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1424,14 +1516,21 @@
       <c r="R6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="57"/>
+      <c r="Z6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1486,126 +1585,149 @@
       <c r="R7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T8" s="14" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V8" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Z8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T9" s="15" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="AA9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T10" s="14" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="AA10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T11" s="16" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="AA11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T12" s="15" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="AA12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T13" s="14" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="AA13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T14" s="11" t="s">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="AA14" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T15" s="11" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="AA15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T16" s="18" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="AA16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T17" s="10" t="s">
+    <row r="17" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="AA17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T18" s="11" t="s">
+    <row r="18" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="AA18" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T19" s="11" t="s">
+    <row r="19" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="AA19" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T20" s="18" t="s">
+    <row r="20" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="AA20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T21" s="19" t="s">
+    <row r="21" spans="26:27" x14ac:dyDescent="0.25">
+      <c r="Z21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="AA21" s="20" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V8:X8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2080,11 +2202,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,12 +2216,15 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="3.625" customWidth="1"/>
     <col min="14" max="14" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.625" customWidth="1"/>
-    <col min="16" max="16" width="3.25" customWidth="1"/>
-    <col min="17" max="17" width="4.75" customWidth="1"/>
+    <col min="15" max="30" width="2.625" customWidth="1"/>
+    <col min="31" max="31" width="2.125" customWidth="1"/>
+    <col min="32" max="32" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="32">
         <v>0</v>
       </c>
@@ -2127,8 +2252,74 @@
       <c r="L1" s="34">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="53">
+        <v>1</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
@@ -2151,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -2172,7 +2363,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2193,7 +2384,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
@@ -2214,7 +2405,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2235,7 +2426,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
@@ -2256,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2283,7 +2474,7 @@
         <v>0 3 6</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
@@ -2304,7 +2495,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
@@ -2373,7 +2564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
@@ -2396,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2614,7 @@
         <v>0 3 6</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +2637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
@@ -2584,11 +2775,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:AG21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,13 +2788,14 @@
     <col min="2" max="2" width="21.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="3.625" customWidth="1"/>
-    <col min="14" max="14" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.625" customWidth="1"/>
-    <col min="16" max="16" width="3.25" customWidth="1"/>
-    <col min="17" max="17" width="4.75" customWidth="1"/>
+    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="30" width="3" customWidth="1"/>
+    <col min="31" max="31" width="1.75" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="32">
         <v>0</v>
       </c>
@@ -2631,8 +2823,65 @@
       <c r="L1" s="34">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="53">
+        <v>0</v>
+      </c>
+      <c r="P1" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="47">
+        <v>0</v>
+      </c>
+      <c r="R1" s="54">
+        <v>0</v>
+      </c>
+      <c r="S1" s="54">
+        <v>0</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2902,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -2669,12 +2918,11 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="28"/>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N16" si="0">TRIM(_xlfn.CONCAT(IF(ISBLANK(D3),"",$D$1), " ", IF(ISBLANK(E3),"",$E$1), " ", IF(ISBLANK(F3),"",$F$1), " ", IF(ISBLANK(G3),"",$G$1), " ", IF(ISBLANK(H3),"",$H$1), " ", IF(ISBLANK(I3),"",$I$1), " ", IF(ISBLANK(J3),"",$J$1), " ", IF(ISBLANK(K3),"",$K$1), " ", IF(ISBLANK(L3),"",$L$1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
@@ -2691,11 +2939,11 @@
       <c r="K4" s="23"/>
       <c r="L4" s="28"/>
       <c r="N4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N4:N16" si="0">TRIM(_xlfn.CONCAT(IF(ISBLANK(D4),"",$D$1), " ", IF(ISBLANK(E4),"",$E$1), " ", IF(ISBLANK(F4),"",$F$1), " ", IF(ISBLANK(G4),"",$G$1), " ", IF(ISBLANK(H4),"",$H$1), " ", IF(ISBLANK(I4),"",$I$1), " ", IF(ISBLANK(J4),"",$J$1), " ", IF(ISBLANK(K4),"",$K$1), " ", IF(ISBLANK(L4),"",$L$1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +2964,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2985,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
@@ -2758,7 +3006,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2779,7 +3027,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
@@ -2800,7 +3048,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
@@ -2821,7 +3069,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2842,7 +3090,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
@@ -2863,7 +3111,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
@@ -2884,7 +3132,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
@@ -2905,7 +3153,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
@@ -2926,7 +3174,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
@@ -3060,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N21"/>
+  <dimension ref="B1:AG21"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,13 +3320,13 @@
     <col min="2" max="2" width="21.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="3.625" customWidth="1"/>
-    <col min="14" max="14" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.625" customWidth="1"/>
-    <col min="16" max="16" width="3.25" customWidth="1"/>
-    <col min="17" max="17" width="4.75" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="30" width="3" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="32">
         <v>0</v>
       </c>
@@ -3106,8 +3354,65 @@
       <c r="L1" s="34">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="53">
+        <v>0</v>
+      </c>
+      <c r="P1" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="47">
+        <v>0</v>
+      </c>
+      <c r="R1" s="54">
+        <v>0</v>
+      </c>
+      <c r="S1" s="54">
+        <v>1</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
@@ -3128,7 +3433,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
@@ -3149,7 +3454,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
@@ -3170,7 +3475,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
@@ -3191,7 +3496,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3212,7 +3517,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
@@ -3233,7 +3538,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
@@ -3254,7 +3559,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
@@ -3275,7 +3580,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
@@ -3296,7 +3601,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
@@ -3317,7 +3622,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
@@ -3338,7 +3643,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
@@ -3359,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
@@ -3380,7 +3685,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
@@ -3401,7 +3706,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
@@ -4010,7 +4315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="76">
   <si>
     <t>ALU</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>B=Dest Reg</t>
+  </si>
+  <si>
+    <t>Decode</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
@@ -2777,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
@@ -3310,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,7 +3423,9 @@
         <v>14</v>
       </c>
       <c r="D2" s="35"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -3430,7 +3435,7 @@
       <c r="L2" s="27"/>
       <c r="N2" t="str">
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
@@ -3438,7 +3443,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="23"/>
@@ -3458,9 +3463,7 @@
       <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="30"/>
       <c r="D4" s="36"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -3479,9 +3482,7 @@
       <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="30"/>
       <c r="D5" s="36"/>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -3500,9 +3501,7 @@
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="36"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -3521,9 +3520,7 @@
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="C7" s="30"/>
       <c r="D7" s="36"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -3545,7 +3542,9 @@
       <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -3556,7 +3555,7 @@
       <c r="L8" s="27"/>
       <c r="N8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3652,7 +3651,9 @@
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -3661,7 +3662,7 @@
       <c r="L13" s="27"/>
       <c r="N13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
@@ -3671,7 +3672,9 @@
       <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -3682,7 +3685,7 @@
       <c r="L14" s="28"/>
       <c r="N14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
@@ -3693,7 +3696,9 @@
         <v>39</v>
       </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -3703,7 +3708,7 @@
       <c r="L15" s="28"/>
       <c r="N15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
-    <sheet name="LOAD" sheetId="2" r:id="rId2"/>
-    <sheet name="ALU" sheetId="3" r:id="rId3"/>
-    <sheet name="MEM-TO-REG" sheetId="4" r:id="rId4"/>
-    <sheet name="CONST-TO-REG" sheetId="6" r:id="rId5"/>
-    <sheet name="REG-2-MEM" sheetId="9" r:id="rId6"/>
-    <sheet name="REG-2-REG" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="LOAD" sheetId="2" r:id="rId3"/>
+    <sheet name="ALU" sheetId="3" r:id="rId4"/>
+    <sheet name="MEM-TO-REG" sheetId="4" r:id="rId5"/>
+    <sheet name="CONST-TO-REG" sheetId="6" r:id="rId6"/>
+    <sheet name="REG-2-MEM" sheetId="9" r:id="rId7"/>
+    <sheet name="REG-2-REG" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="88">
   <si>
     <t>ALU</t>
   </si>
@@ -276,6 +277,24 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>C2R</t>
+  </si>
+  <si>
+    <t>ALU-ADD</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -741,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,58 +927,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,7 +1305,7 @@
   <dimension ref="A2:AA21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,11 +1740,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V8" s="58" t="s">
+      <c r="V8" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
       <c r="Z8" s="14" t="s">
         <v>28</v>
       </c>
@@ -1840,10 +1866,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="76"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="76"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>1</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>2</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>3</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="74">
+        <v>4</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>5</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>6</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>7</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>8</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>9</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>10</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>11</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>12</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +2259,7 @@
       <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="63" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="37" t="s">
@@ -1928,7 +2281,7 @@
       <c r="B4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="42"/>
@@ -1972,7 +2325,7 @@
       <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="63" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="37"/>
@@ -1994,7 +2347,7 @@
       <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="65" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="23"/>
@@ -2016,7 +2369,7 @@
       <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="63" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="37"/>
@@ -2038,7 +2391,7 @@
       <c r="B9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="42"/>
@@ -2060,7 +2413,7 @@
       <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="42"/>
@@ -2082,17 +2435,17 @@
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="21"/>
       <c r="K11" s="52" t="str">
         <f t="shared" ref="K11" si="1">TRIM(_xlfn.CONCAT(IF(ISBLANK(D11),"",$D$1), " ", IF(ISBLANK(E11),"",$E$1), " ", IF(ISBLANK(F11),"",$F$1), " ", IF(ISBLANK(G11),"",$G$1), " ", IF(ISBLANK(H11),"",$H$1), " ", IF(ISBLANK(I11),"",$I$1)))</f>
@@ -2104,7 +2457,7 @@
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="69" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="37"/>
@@ -2128,7 +2481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ21"/>
   <sheetViews>
@@ -2701,7 +3054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA16"/>
   <sheetViews>
@@ -2820,16 +3173,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>0 2</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -2838,7 +3191,7 @@
       <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="63" t="str">
+      <c r="D3" s="60" t="str">
         <f>IF(ISBLANK(D2),"","1")</f>
         <v>1</v>
       </c>
@@ -2884,7 +3237,7 @@
       <c r="C4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
@@ -2926,7 +3279,7 @@
       <c r="C6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="63" t="str">
+      <c r="D6" s="60" t="str">
         <f>IF(ISBLANK(D5),"","1")</f>
         <v/>
       </c>
@@ -3055,7 +3408,7 @@
       <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="33"/>
@@ -3076,7 +3429,7 @@
       <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="59" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="33"/>
@@ -3099,7 +3452,7 @@
       <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="33"/>
@@ -3120,7 +3473,7 @@
       <c r="B14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="58" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="33"/>
@@ -3161,7 +3514,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="41"/>
@@ -3190,7 +3543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG18"/>
   <sheetViews>
@@ -3665,11 +4018,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
@@ -3784,16 +4137,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>0 2</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -3802,7 +4155,7 @@
       <c r="C3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="63" t="str">
+      <c r="D3" s="60" t="str">
         <f>IF(ISBLANK(D2),"","1")</f>
         <v>1</v>
       </c>
@@ -3848,7 +4201,7 @@
       <c r="C4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
@@ -3890,7 +4243,7 @@
       <c r="C6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="63" t="str">
+      <c r="D6" s="60" t="str">
         <f>IF(ISBLANK(D5),"","1")</f>
         <v/>
       </c>
@@ -4017,7 +4370,7 @@
       <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="33"/>
@@ -4040,7 +4393,7 @@
       <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="59" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="33"/>
@@ -4063,7 +4416,7 @@
       <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="33"/>
@@ -4086,7 +4439,7 @@
       <c r="B14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="58" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="33"/>
@@ -4125,7 +4478,7 @@
       </c>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="41"/>
@@ -4154,13 +4507,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,10 +4521,12 @@
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="21.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="3.625" customWidth="1"/>
+    <col min="4" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="12" width="3.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
     <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
     <col min="15" max="27" width="3" customWidth="1"/>
-    <col min="28" max="28" width="1.75" customWidth="1"/>
+    <col min="28" max="28" width="4.25" customWidth="1"/>
     <col min="29" max="29" width="9.375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4259,28 +4614,28 @@
         <v>57</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
       <c r="N2" t="str">
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
-        <v>1 5</v>
-      </c>
-      <c r="Q2" s="59" t="s">
+        <v>1 3</v>
+      </c>
+      <c r="Q2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -4290,7 +4645,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f t="shared" ref="D3:L4" si="0">IF(ISBLANK(D2),"","1")</f>
+        <f t="shared" ref="D3:L3" si="0">IF(ISBLANK(D2),"","1")</f>
         <v/>
       </c>
       <c r="E3" s="37" t="str">
@@ -4303,7 +4658,7 @@
       </c>
       <c r="G3" s="37" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H3" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4311,7 +4666,7 @@
       </c>
       <c r="I3" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J3" s="37" t="str">
         <f t="shared" si="0"/>
@@ -4327,7 +4682,7 @@
       </c>
       <c r="N3" t="str">
         <f>N2</f>
-        <v>1 5</v>
+        <v>1 3</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4335,22 +4690,20 @@
       <c r="C4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
       <c r="N4" t="str">
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D4),"",$D$1), " ", IF(ISBLANK(E4),"",$E$1), " ", IF(ISBLANK(F4),"",$F$1), " ", IF(ISBLANK(G4),"",$G$1), " ", IF(ISBLANK(H4),"",$H$1), " ", IF(ISBLANK(I4),"",$I$1), " ", IF(ISBLANK(J4),"",$J$1), " ", IF(ISBLANK(K4),"",$K$1), " ", IF(ISBLANK(L4),"",$L$1)))</f>
-        <v>2 6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -4362,14 +4715,16 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="25"/>
       <c r="N5" t="str">
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D5),"",$D$1), " ", IF(ISBLANK(E5),"",$E$1), " ", IF(ISBLANK(F5),"",$F$1), " ", IF(ISBLANK(G5),"",$G$1), " ", IF(ISBLANK(H5),"",$H$1), " ", IF(ISBLANK(I5),"",$I$1), " ", IF(ISBLANK(J5),"",$J$1), " ", IF(ISBLANK(K5),"",$K$1), " ", IF(ISBLANK(L5),"",$L$1)))</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4377,7 +4732,7 @@
       <c r="C6" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="63" t="str">
+      <c r="D6" s="60" t="str">
         <f>IF(ISBLANK(D5),"","1")</f>
         <v/>
       </c>
@@ -4395,7 +4750,7 @@
       </c>
       <c r="H6" s="37" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I6" s="37" t="str">
         <f t="shared" si="1"/>
@@ -4415,7 +4770,7 @@
       </c>
       <c r="N6" t="str">
         <f>N5</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4428,13 +4783,15 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="25"/>
       <c r="N7" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D7),"",$D$1), " ", IF(ISBLANK(E7),"",$E$1), " ", IF(ISBLANK(F7),"",$F$1), " ", IF(ISBLANK(G7),"",$G$1), " ", IF(ISBLANK(H7),"",$H$1), " ", IF(ISBLANK(I7),"",$I$1), " ", IF(ISBLANK(J7),"",$J$1), " ", IF(ISBLANK(K7),"",$K$1), " ", IF(ISBLANK(L7),"",$L$1)))</f>
-        <v/>
+        <f t="shared" ref="N7:N17" si="2">TRIM(_xlfn.CONCAT(IF(ISBLANK(D7),"",$D$1), " ", IF(ISBLANK(E7),"",$E$1), " ", IF(ISBLANK(F7),"",$F$1), " ", IF(ISBLANK(G7),"",$G$1), " ", IF(ISBLANK(H7),"",$H$1), " ", IF(ISBLANK(I7),"",$I$1), " ", IF(ISBLANK(J7),"",$J$1), " ", IF(ISBLANK(K7),"",$K$1), " ", IF(ISBLANK(L7),"",$L$1)))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
@@ -4454,7 +4811,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
       <c r="N8" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D8),"",$D$1), " ", IF(ISBLANK(E8),"",$E$1), " ", IF(ISBLANK(F8),"",$F$1), " ", IF(ISBLANK(G8),"",$G$1), " ", IF(ISBLANK(H8),"",$H$1), " ", IF(ISBLANK(I8),"",$I$1), " ", IF(ISBLANK(J8),"",$J$1), " ", IF(ISBLANK(K8),"",$K$1), " ", IF(ISBLANK(L8),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4475,7 +4832,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="25"/>
       <c r="N9" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D9),"",$D$1), " ", IF(ISBLANK(E9),"",$E$1), " ", IF(ISBLANK(F9),"",$F$1), " ", IF(ISBLANK(G9),"",$G$1), " ", IF(ISBLANK(H9),"",$H$1), " ", IF(ISBLANK(I9),"",$I$1), " ", IF(ISBLANK(J9),"",$J$1), " ", IF(ISBLANK(K9),"",$K$1), " ", IF(ISBLANK(L9),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4496,7 +4853,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="N10" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D10),"",$D$1), " ", IF(ISBLANK(E10),"",$E$1), " ", IF(ISBLANK(F10),"",$F$1), " ", IF(ISBLANK(G10),"",$G$1), " ", IF(ISBLANK(H10),"",$H$1), " ", IF(ISBLANK(I10),"",$I$1), " ", IF(ISBLANK(J10),"",$J$1), " ", IF(ISBLANK(K10),"",$K$1), " ", IF(ISBLANK(L10),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4504,7 +4861,7 @@
       <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="33"/>
@@ -4517,7 +4874,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="25"/>
       <c r="N11" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D11),"",$D$1), " ", IF(ISBLANK(E11),"",$E$1), " ", IF(ISBLANK(F11),"",$F$1), " ", IF(ISBLANK(G11),"",$G$1), " ", IF(ISBLANK(H11),"",$H$1), " ", IF(ISBLANK(I11),"",$I$1), " ", IF(ISBLANK(J11),"",$J$1), " ", IF(ISBLANK(K11),"",$K$1), " ", IF(ISBLANK(L11),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4525,7 +4882,7 @@
       <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="59" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="33"/>
@@ -4538,7 +4895,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="25"/>
       <c r="N12" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D12),"",$D$1), " ", IF(ISBLANK(E12),"",$E$1), " ", IF(ISBLANK(F12),"",$F$1), " ", IF(ISBLANK(G12),"",$G$1), " ", IF(ISBLANK(H12),"",$H$1), " ", IF(ISBLANK(I12),"",$I$1), " ", IF(ISBLANK(J12),"",$J$1), " ", IF(ISBLANK(K12),"",$K$1), " ", IF(ISBLANK(L12),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4546,7 +4903,7 @@
       <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="59" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="33"/>
@@ -4559,7 +4916,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="25"/>
       <c r="N13" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D13),"",$D$1), " ", IF(ISBLANK(E13),"",$E$1), " ", IF(ISBLANK(F13),"",$F$1), " ", IF(ISBLANK(G13),"",$G$1), " ", IF(ISBLANK(H13),"",$H$1), " ", IF(ISBLANK(I13),"",$I$1), " ", IF(ISBLANK(J13),"",$J$1), " ", IF(ISBLANK(K13),"",$K$1), " ", IF(ISBLANK(L13),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4567,7 +4924,7 @@
       <c r="B14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="58" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="33"/>
@@ -4580,7 +4937,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="25"/>
       <c r="N14" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D14),"",$D$1), " ", IF(ISBLANK(E14),"",$E$1), " ", IF(ISBLANK(F14),"",$F$1), " ", IF(ISBLANK(G14),"",$G$1), " ", IF(ISBLANK(H14),"",$H$1), " ", IF(ISBLANK(I14),"",$I$1), " ", IF(ISBLANK(J14),"",$J$1), " ", IF(ISBLANK(K14),"",$K$1), " ", IF(ISBLANK(L14),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4601,12 +4958,12 @@
       <c r="K15" s="42"/>
       <c r="L15" s="43"/>
       <c r="N15" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D15),"",$D$1), " ", IF(ISBLANK(E15),"",$E$1), " ", IF(ISBLANK(F15),"",$F$1), " ", IF(ISBLANK(G15),"",$G$1), " ", IF(ISBLANK(H15),"",$H$1), " ", IF(ISBLANK(I15),"",$I$1), " ", IF(ISBLANK(J15),"",$J$1), " ", IF(ISBLANK(K15),"",$K$1), " ", IF(ISBLANK(L15),"",$L$1)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="41"/>
@@ -4615,16 +4972,18 @@
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="K16" s="42"/>
       <c r="L16" s="43"/>
       <c r="N16" t="str">
-        <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D16),"",$D$1), " ", IF(ISBLANK(E16),"",$E$1), " ", IF(ISBLANK(F16),"",$F$1), " ", IF(ISBLANK(G16),"",$G$1), " ", IF(ISBLANK(H16),"",$H$1), " ", IF(ISBLANK(I16),"",$I$1), " ", IF(ISBLANK(J16),"",$J$1), " ", IF(ISBLANK(K16),"",$K$1), " ", IF(ISBLANK(L16),"",$L$1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="73" t="s">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="70" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -4638,6 +4997,10 @@
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="L17" s="43"/>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6480" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="CONST-TO-REG" sheetId="6" r:id="rId6"/>
     <sheet name="REG-2-MEM" sheetId="9" r:id="rId7"/>
     <sheet name="REG-2-REG" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="132">
   <si>
     <t>ALU</t>
   </si>
@@ -295,6 +297,138 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Llimit</t>
+  </si>
+  <si>
+    <t>Hlimit</t>
+  </si>
+  <si>
+    <t>R2R(R0, R4)</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>LowLimit</t>
+  </si>
+  <si>
+    <t>HighLimit</t>
+  </si>
+  <si>
+    <t>Tmp</t>
+  </si>
+  <si>
+    <t>R2R(R0, R5)</t>
+  </si>
+  <si>
+    <t>R2R(R5, R0)</t>
+  </si>
+  <si>
+    <t>C2R(R1, 0)</t>
+  </si>
+  <si>
+    <t>C2R(R2, 0)</t>
+  </si>
+  <si>
+    <t>C2R(R3, 10)</t>
+  </si>
+  <si>
+    <t>While(true)</t>
+  </si>
+  <si>
+    <t>while(true)</t>
+  </si>
+  <si>
+    <t>innerWhile</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>C2R(R6, 1)</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>Count++</t>
+  </si>
+  <si>
+    <t>JumpToCount++</t>
+  </si>
+  <si>
+    <t>while(count &lt; 10)</t>
+  </si>
+  <si>
+    <t>JumpTo While(true)</t>
+  </si>
+  <si>
+    <t>while(count &gt; 0)</t>
+  </si>
+  <si>
+    <t>R2R(R4, R0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD(R1, R6, R1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB(R1, R6, R1) </t>
+  </si>
+  <si>
+    <t>Count--</t>
+  </si>
+  <si>
+    <t>JumpToCount--</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>SUB(R1, R3, R7)</t>
+  </si>
+  <si>
+    <t>SUB(R1, R2, R7)</t>
+  </si>
+  <si>
+    <t>Do while</t>
   </si>
 </sst>
 </file>
@@ -332,7 +466,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +509,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -756,11 +896,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,6 +1228,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -986,6 +1246,149 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1708,7 @@
   <dimension ref="A2:AA21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,11 +2143,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V8" s="75" t="s">
+      <c r="V8" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
       <c r="Z8" s="14" t="s">
         <v>28</v>
       </c>
@@ -1860,6 +2263,308 @@
   <mergeCells count="1">
     <mergeCell ref="V8:X8"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="8" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75">
+        <v>6</v>
+      </c>
+      <c r="C1" s="75">
+        <v>5</v>
+      </c>
+      <c r="D1" s="75">
+        <v>4</v>
+      </c>
+      <c r="E1" s="75">
+        <v>3</v>
+      </c>
+      <c r="F1" s="75">
+        <v>2</v>
+      </c>
+      <c r="G1" s="75">
+        <v>1</v>
+      </c>
+      <c r="H1" s="75">
+        <v>0</v>
+      </c>
+      <c r="I1" s="75"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="75">
+        <v>0</v>
+      </c>
+      <c r="B2" s="126">
+        <v>1</v>
+      </c>
+      <c r="C2" s="127">
+        <v>1</v>
+      </c>
+      <c r="D2" s="127">
+        <v>1</v>
+      </c>
+      <c r="E2" s="127">
+        <v>1</v>
+      </c>
+      <c r="F2" s="127">
+        <v>1</v>
+      </c>
+      <c r="G2" s="127">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="75"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
+        <v>1</v>
+      </c>
+      <c r="B3" s="128">
+        <v>1</v>
+      </c>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129">
+        <v>1</v>
+      </c>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="75"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="75">
+        <v>2</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129">
+        <v>1</v>
+      </c>
+      <c r="D4" s="129">
+        <v>1</v>
+      </c>
+      <c r="E4" s="129">
+        <v>1</v>
+      </c>
+      <c r="F4" s="129">
+        <v>1</v>
+      </c>
+      <c r="G4" s="129"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="75">
+        <v>3</v>
+      </c>
+      <c r="B5" s="128">
+        <v>1</v>
+      </c>
+      <c r="C5" s="129">
+        <v>1</v>
+      </c>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129">
+        <v>1</v>
+      </c>
+      <c r="F5" s="129">
+        <v>1</v>
+      </c>
+      <c r="G5" s="129"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
+        <v>4</v>
+      </c>
+      <c r="B6" s="128">
+        <v>1</v>
+      </c>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129">
+        <v>1</v>
+      </c>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
+        <v>5</v>
+      </c>
+      <c r="B7" s="128">
+        <v>1</v>
+      </c>
+      <c r="C7" s="129">
+        <v>1</v>
+      </c>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129">
+        <v>1</v>
+      </c>
+      <c r="G7" s="129">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="75"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
+        <v>6</v>
+      </c>
+      <c r="B8" s="128">
+        <v>1</v>
+      </c>
+      <c r="C8" s="129">
+        <v>1</v>
+      </c>
+      <c r="D8" s="129">
+        <v>1</v>
+      </c>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129">
+        <v>1</v>
+      </c>
+      <c r="G8" s="129">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="75"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
+        <v>7</v>
+      </c>
+      <c r="B9" s="128">
+        <v>1</v>
+      </c>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129">
+        <v>1</v>
+      </c>
+      <c r="F9" s="129">
+        <v>1</v>
+      </c>
+      <c r="G9" s="129"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
+        <v>8</v>
+      </c>
+      <c r="B10" s="128">
+        <v>1</v>
+      </c>
+      <c r="C10" s="129">
+        <v>1</v>
+      </c>
+      <c r="D10" s="129">
+        <v>1</v>
+      </c>
+      <c r="E10" s="129">
+        <v>1</v>
+      </c>
+      <c r="F10" s="129">
+        <v>1</v>
+      </c>
+      <c r="G10" s="129">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="75"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
+        <v>9</v>
+      </c>
+      <c r="B11" s="130">
+        <v>1</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131">
+        <v>1</v>
+      </c>
+      <c r="F11" s="131">
+        <v>1</v>
+      </c>
+      <c r="G11" s="131">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="75"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75">
+        <f t="shared" ref="B12" si="0">SUM(B2:B11)</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="75">
+        <f>SUM(C2:C11)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="75">
+        <f>SUM(D2:D11)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="75">
+        <f>SUM(E2:E11)</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="75">
+        <f>SUM(F2:F11)</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="75">
+        <f>SUM(G2:G11)</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="75">
+        <f>SUM(H2:H11)</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="75"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1905,10 +2610,10 @@
       <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -1945,10 +2650,10 @@
       <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1957,10 +2662,10 @@
       <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="76"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -3058,9 +3763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,16 +3878,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>0 2</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -4137,16 +4842,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>0 2</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -4511,9 +5216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,16 +5331,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>1 3</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -5010,4 +5715,1449 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="3.5" customWidth="1"/>
+    <col min="20" max="20" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="75">
+        <v>15</v>
+      </c>
+      <c r="E1" s="75">
+        <v>14</v>
+      </c>
+      <c r="F1" s="75">
+        <v>13</v>
+      </c>
+      <c r="G1" s="75">
+        <v>12</v>
+      </c>
+      <c r="H1" s="75">
+        <v>11</v>
+      </c>
+      <c r="I1" s="75">
+        <v>10</v>
+      </c>
+      <c r="J1" s="75">
+        <v>9</v>
+      </c>
+      <c r="K1" s="75">
+        <v>8</v>
+      </c>
+      <c r="L1" s="75">
+        <v>7</v>
+      </c>
+      <c r="M1" s="75">
+        <v>6</v>
+      </c>
+      <c r="N1" s="75">
+        <v>5</v>
+      </c>
+      <c r="O1" s="75">
+        <v>4</v>
+      </c>
+      <c r="P1" s="75">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="75">
+        <v>2</v>
+      </c>
+      <c r="R1" s="75">
+        <v>1</v>
+      </c>
+      <c r="S1" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="50">
+        <v>1</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45">
+        <v>1</v>
+      </c>
+      <c r="H2" s="45">
+        <v>1</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="44">
+        <v>0</v>
+      </c>
+      <c r="S2" s="44">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="50">
+        <v>1</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0</v>
+      </c>
+      <c r="F3" s="45">
+        <v>1</v>
+      </c>
+      <c r="G3" s="45">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45">
+        <v>1</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="44">
+        <v>0</v>
+      </c>
+      <c r="S3" s="44">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="50">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="44">
+        <v>0</v>
+      </c>
+      <c r="S4" s="44">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="50">
+        <v>0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="44">
+        <v>0</v>
+      </c>
+      <c r="P5" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>0</v>
+      </c>
+      <c r="R5" s="44">
+        <v>0</v>
+      </c>
+      <c r="S5" s="44">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="50">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>1</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="50">
+        <v>0</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <v>1</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="44">
+        <v>0</v>
+      </c>
+      <c r="P7" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>0</v>
+      </c>
+      <c r="R7" s="44">
+        <v>0</v>
+      </c>
+      <c r="S7" s="44">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="50">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <v>1</v>
+      </c>
+      <c r="H8" s="51">
+        <v>1</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="44">
+        <v>0</v>
+      </c>
+      <c r="S8" s="44">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>101</v>
+      </c>
+      <c r="V9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
+        <v>1</v>
+      </c>
+      <c r="I12" s="76">
+        <v>0</v>
+      </c>
+      <c r="J12" s="76">
+        <v>0</v>
+      </c>
+      <c r="K12" s="76">
+        <v>1</v>
+      </c>
+      <c r="L12" s="49">
+        <v>0</v>
+      </c>
+      <c r="M12" s="49">
+        <v>0</v>
+      </c>
+      <c r="N12" s="49">
+        <v>0</v>
+      </c>
+      <c r="O12" s="49">
+        <v>0</v>
+      </c>
+      <c r="P12" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>0</v>
+      </c>
+      <c r="R12" s="49">
+        <v>0</v>
+      </c>
+      <c r="S12" s="49">
+        <v>0</v>
+      </c>
+      <c r="T12" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(D12:K12), 2),BIN2HEX(_xlfn.CONCAT(L12:S12), 2))</f>
+        <v>0900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="50">
+        <v>0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
+        <v>1</v>
+      </c>
+      <c r="I13" s="76">
+        <v>0</v>
+      </c>
+      <c r="J13" s="76">
+        <v>1</v>
+      </c>
+      <c r="K13" s="76">
+        <v>0</v>
+      </c>
+      <c r="L13" s="49">
+        <v>0</v>
+      </c>
+      <c r="M13" s="49">
+        <v>0</v>
+      </c>
+      <c r="N13" s="49">
+        <v>0</v>
+      </c>
+      <c r="O13" s="49">
+        <v>0</v>
+      </c>
+      <c r="P13" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="49">
+        <v>0</v>
+      </c>
+      <c r="R13" s="49">
+        <v>0</v>
+      </c>
+      <c r="S13" s="49">
+        <v>0</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" ref="T13:T26" si="0">_xlfn.CONCAT(BIN2HEX(_xlfn.CONCAT(D13:K13), 2),BIN2HEX(_xlfn.CONCAT(L13:S13), 2))</f>
+        <v>0A00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
+        <v>1</v>
+      </c>
+      <c r="I14" s="76">
+        <v>0</v>
+      </c>
+      <c r="J14" s="76">
+        <v>1</v>
+      </c>
+      <c r="K14" s="76">
+        <v>1</v>
+      </c>
+      <c r="L14" s="49">
+        <v>0</v>
+      </c>
+      <c r="M14" s="49">
+        <v>0</v>
+      </c>
+      <c r="N14" s="49">
+        <v>0</v>
+      </c>
+      <c r="O14" s="49">
+        <v>0</v>
+      </c>
+      <c r="P14" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="49">
+        <v>0</v>
+      </c>
+      <c r="R14" s="49">
+        <v>1</v>
+      </c>
+      <c r="S14" s="49">
+        <v>0</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>0B0A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="50">
+        <v>0</v>
+      </c>
+      <c r="E15" s="44">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>1</v>
+      </c>
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
+      <c r="J15" s="76">
+        <v>1</v>
+      </c>
+      <c r="K15" s="76">
+        <v>0</v>
+      </c>
+      <c r="L15" s="49">
+        <v>0</v>
+      </c>
+      <c r="M15" s="49">
+        <v>0</v>
+      </c>
+      <c r="N15" s="49">
+        <v>0</v>
+      </c>
+      <c r="O15" s="49">
+        <v>0</v>
+      </c>
+      <c r="P15" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="49">
+        <v>0</v>
+      </c>
+      <c r="R15" s="49">
+        <v>0</v>
+      </c>
+      <c r="S15" s="49">
+        <v>1</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>0E01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="84">
+        <v>0</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0</v>
+      </c>
+      <c r="F16" s="85">
+        <v>0</v>
+      </c>
+      <c r="G16" s="86">
+        <v>1</v>
+      </c>
+      <c r="H16" s="86">
+        <v>1</v>
+      </c>
+      <c r="I16" s="87">
+        <v>0</v>
+      </c>
+      <c r="J16" s="87">
+        <v>0</v>
+      </c>
+      <c r="K16" s="87">
+        <v>0</v>
+      </c>
+      <c r="L16" s="122">
+        <v>1</v>
+      </c>
+      <c r="M16" s="122">
+        <v>0</v>
+      </c>
+      <c r="N16" s="122">
+        <v>0</v>
+      </c>
+      <c r="O16" s="123">
+        <v>1</v>
+      </c>
+      <c r="P16" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="123">
+        <v>1</v>
+      </c>
+      <c r="R16" s="85">
+        <v>0</v>
+      </c>
+      <c r="S16" s="124">
+        <v>0</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="0"/>
+        <v>189C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="107">
+        <v>0</v>
+      </c>
+      <c r="E17" s="108">
+        <v>0</v>
+      </c>
+      <c r="F17" s="108">
+        <v>0</v>
+      </c>
+      <c r="G17" s="109">
+        <v>1</v>
+      </c>
+      <c r="H17" s="109">
+        <v>1</v>
+      </c>
+      <c r="I17" s="110">
+        <v>0</v>
+      </c>
+      <c r="J17" s="110">
+        <v>0</v>
+      </c>
+      <c r="K17" s="110">
+        <v>0</v>
+      </c>
+      <c r="L17" s="121">
+        <v>1</v>
+      </c>
+      <c r="M17" s="121">
+        <v>0</v>
+      </c>
+      <c r="N17" s="121">
+        <v>1</v>
+      </c>
+      <c r="O17" s="120">
+        <v>1</v>
+      </c>
+      <c r="P17" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="120">
+        <v>1</v>
+      </c>
+      <c r="R17" s="108">
+        <v>0</v>
+      </c>
+      <c r="S17" s="125">
+        <v>0</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>18BC</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="90">
+        <v>1</v>
+      </c>
+      <c r="E18" s="91">
+        <v>0</v>
+      </c>
+      <c r="F18" s="91">
+        <v>0</v>
+      </c>
+      <c r="G18" s="91">
+        <v>1</v>
+      </c>
+      <c r="H18" s="91">
+        <v>1</v>
+      </c>
+      <c r="I18" s="92">
+        <v>0</v>
+      </c>
+      <c r="J18" s="92">
+        <v>0</v>
+      </c>
+      <c r="K18" s="92">
+        <v>1</v>
+      </c>
+      <c r="L18" s="93">
+        <v>1</v>
+      </c>
+      <c r="M18" s="93">
+        <v>1</v>
+      </c>
+      <c r="N18" s="93">
+        <v>0</v>
+      </c>
+      <c r="O18" s="94">
+        <v>0</v>
+      </c>
+      <c r="P18" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="94">
+        <v>1</v>
+      </c>
+      <c r="R18" s="95">
+        <v>0</v>
+      </c>
+      <c r="S18" s="96">
+        <v>0</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>99C4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90">
+        <v>1</v>
+      </c>
+      <c r="E19" s="91">
+        <v>0</v>
+      </c>
+      <c r="F19" s="91">
+        <v>1</v>
+      </c>
+      <c r="G19" s="91">
+        <v>1</v>
+      </c>
+      <c r="H19" s="91">
+        <v>1</v>
+      </c>
+      <c r="I19" s="92">
+        <v>0</v>
+      </c>
+      <c r="J19" s="92">
+        <v>1</v>
+      </c>
+      <c r="K19" s="92">
+        <v>1</v>
+      </c>
+      <c r="L19" s="93">
+        <v>0</v>
+      </c>
+      <c r="M19" s="93">
+        <v>0</v>
+      </c>
+      <c r="N19" s="93">
+        <v>1</v>
+      </c>
+      <c r="O19" s="94">
+        <v>1</v>
+      </c>
+      <c r="P19" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="94">
+        <v>1</v>
+      </c>
+      <c r="R19" s="95">
+        <v>0</v>
+      </c>
+      <c r="S19" s="96">
+        <v>0</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>BB3C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="112">
+        <v>0</v>
+      </c>
+      <c r="E20" s="113">
+        <v>0</v>
+      </c>
+      <c r="F20" s="113">
+        <v>0</v>
+      </c>
+      <c r="G20" s="114">
+        <v>1</v>
+      </c>
+      <c r="H20" s="114">
+        <v>1</v>
+      </c>
+      <c r="I20" s="115">
+        <v>1</v>
+      </c>
+      <c r="J20" s="115">
+        <v>0</v>
+      </c>
+      <c r="K20" s="115">
+        <v>1</v>
+      </c>
+      <c r="L20" s="116">
+        <v>0</v>
+      </c>
+      <c r="M20" s="116">
+        <v>0</v>
+      </c>
+      <c r="N20" s="116">
+        <v>0</v>
+      </c>
+      <c r="O20" s="132">
+        <v>0</v>
+      </c>
+      <c r="P20" s="132">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="132">
+        <v>1</v>
+      </c>
+      <c r="R20" s="113">
+        <v>0</v>
+      </c>
+      <c r="S20" s="119">
+        <v>0</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>1D04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="107">
+        <v>0</v>
+      </c>
+      <c r="E21" s="108">
+        <v>0</v>
+      </c>
+      <c r="F21" s="108">
+        <v>0</v>
+      </c>
+      <c r="G21" s="109">
+        <v>1</v>
+      </c>
+      <c r="H21" s="109">
+        <v>1</v>
+      </c>
+      <c r="I21" s="110">
+        <v>0</v>
+      </c>
+      <c r="J21" s="110">
+        <v>0</v>
+      </c>
+      <c r="K21" s="110">
+        <v>0</v>
+      </c>
+      <c r="L21" s="121">
+        <v>1</v>
+      </c>
+      <c r="M21" s="121">
+        <v>0</v>
+      </c>
+      <c r="N21" s="121">
+        <v>1</v>
+      </c>
+      <c r="O21" s="120">
+        <v>1</v>
+      </c>
+      <c r="P21" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="120">
+        <v>1</v>
+      </c>
+      <c r="R21" s="108">
+        <v>0</v>
+      </c>
+      <c r="S21" s="125">
+        <v>0</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>18BC</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="90">
+        <v>1</v>
+      </c>
+      <c r="E22" s="91">
+        <v>0</v>
+      </c>
+      <c r="F22" s="91">
+        <v>1</v>
+      </c>
+      <c r="G22" s="91">
+        <v>1</v>
+      </c>
+      <c r="H22" s="91">
+        <v>1</v>
+      </c>
+      <c r="I22" s="92">
+        <v>0</v>
+      </c>
+      <c r="J22" s="92">
+        <v>0</v>
+      </c>
+      <c r="K22" s="92">
+        <v>1</v>
+      </c>
+      <c r="L22" s="93">
+        <v>1</v>
+      </c>
+      <c r="M22" s="93">
+        <v>1</v>
+      </c>
+      <c r="N22" s="93">
+        <v>0</v>
+      </c>
+      <c r="O22" s="94">
+        <v>0</v>
+      </c>
+      <c r="P22" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="94">
+        <v>1</v>
+      </c>
+      <c r="R22" s="95">
+        <v>0</v>
+      </c>
+      <c r="S22" s="96">
+        <v>0</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>B9C4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90">
+        <v>1</v>
+      </c>
+      <c r="E23" s="91">
+        <v>0</v>
+      </c>
+      <c r="F23" s="91">
+        <v>1</v>
+      </c>
+      <c r="G23" s="91">
+        <v>1</v>
+      </c>
+      <c r="H23" s="91">
+        <v>1</v>
+      </c>
+      <c r="I23" s="92">
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <v>0</v>
+      </c>
+      <c r="K23" s="92">
+        <v>1</v>
+      </c>
+      <c r="L23" s="93">
+        <v>0</v>
+      </c>
+      <c r="M23" s="93">
+        <v>1</v>
+      </c>
+      <c r="N23" s="93">
+        <v>0</v>
+      </c>
+      <c r="O23" s="94">
+        <v>1</v>
+      </c>
+      <c r="P23" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="94">
+        <v>1</v>
+      </c>
+      <c r="R23" s="95">
+        <v>0</v>
+      </c>
+      <c r="S23" s="96">
+        <v>0</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>B95C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="112">
+        <v>0</v>
+      </c>
+      <c r="E24" s="113">
+        <v>0</v>
+      </c>
+      <c r="F24" s="113">
+        <v>0</v>
+      </c>
+      <c r="G24" s="114">
+        <v>1</v>
+      </c>
+      <c r="H24" s="114">
+        <v>1</v>
+      </c>
+      <c r="I24" s="115">
+        <v>1</v>
+      </c>
+      <c r="J24" s="115">
+        <v>0</v>
+      </c>
+      <c r="K24" s="115">
+        <v>1</v>
+      </c>
+      <c r="L24" s="116">
+        <v>0</v>
+      </c>
+      <c r="M24" s="116">
+        <v>0</v>
+      </c>
+      <c r="N24" s="116">
+        <v>0</v>
+      </c>
+      <c r="O24" s="132">
+        <v>1</v>
+      </c>
+      <c r="P24" s="132">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="132">
+        <v>0</v>
+      </c>
+      <c r="R24" s="113">
+        <v>0</v>
+      </c>
+      <c r="S24" s="119">
+        <v>0</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>1D10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="99">
+        <v>0</v>
+      </c>
+      <c r="E25" s="100">
+        <v>0</v>
+      </c>
+      <c r="F25" s="100">
+        <v>0</v>
+      </c>
+      <c r="G25" s="101">
+        <v>1</v>
+      </c>
+      <c r="H25" s="101">
+        <v>1</v>
+      </c>
+      <c r="I25" s="102">
+        <v>1</v>
+      </c>
+      <c r="J25" s="102">
+        <v>0</v>
+      </c>
+      <c r="K25" s="102">
+        <v>1</v>
+      </c>
+      <c r="L25" s="103">
+        <v>0</v>
+      </c>
+      <c r="M25" s="103">
+        <v>0</v>
+      </c>
+      <c r="N25" s="103">
+        <v>0</v>
+      </c>
+      <c r="O25" s="104">
+        <v>1</v>
+      </c>
+      <c r="P25" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="104">
+        <v>1</v>
+      </c>
+      <c r="R25" s="100">
+        <v>0</v>
+      </c>
+      <c r="S25" s="105">
+        <v>0</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>1D1C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -1236,6 +1236,149 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,149 +1389,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2143,11 +2143,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V8" s="78" t="s">
+      <c r="V8" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
       <c r="Z8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2310,22 +2310,22 @@
       <c r="A2" s="75">
         <v>0</v>
       </c>
-      <c r="B2" s="126">
-        <v>1</v>
-      </c>
-      <c r="C2" s="127">
-        <v>1</v>
-      </c>
-      <c r="D2" s="127">
-        <v>1</v>
-      </c>
-      <c r="E2" s="127">
-        <v>1</v>
-      </c>
-      <c r="F2" s="127">
-        <v>1</v>
-      </c>
-      <c r="G2" s="127">
+      <c r="B2" s="122">
+        <v>1</v>
+      </c>
+      <c r="C2" s="123">
+        <v>1</v>
+      </c>
+      <c r="D2" s="123">
+        <v>1</v>
+      </c>
+      <c r="E2" s="123">
+        <v>1</v>
+      </c>
+      <c r="F2" s="123">
+        <v>1</v>
+      </c>
+      <c r="G2" s="123">
         <v>1</v>
       </c>
       <c r="H2" s="6"/>
@@ -2335,16 +2335,16 @@
       <c r="A3" s="75">
         <v>1</v>
       </c>
-      <c r="B3" s="128">
-        <v>1</v>
-      </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129">
-        <v>1</v>
-      </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
+      <c r="B3" s="124">
+        <v>1</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125">
+        <v>1</v>
+      </c>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
       <c r="H3" s="4"/>
       <c r="I3" s="75"/>
     </row>
@@ -2352,20 +2352,20 @@
       <c r="A4" s="75">
         <v>2</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="129">
-        <v>1</v>
-      </c>
-      <c r="D4" s="129">
-        <v>1</v>
-      </c>
-      <c r="E4" s="129">
-        <v>1</v>
-      </c>
-      <c r="F4" s="129">
-        <v>1</v>
-      </c>
-      <c r="G4" s="129"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125">
+        <v>1</v>
+      </c>
+      <c r="D4" s="125">
+        <v>1</v>
+      </c>
+      <c r="E4" s="125">
+        <v>1</v>
+      </c>
+      <c r="F4" s="125">
+        <v>1</v>
+      </c>
+      <c r="G4" s="125"/>
       <c r="H4" s="4">
         <v>1</v>
       </c>
@@ -2375,20 +2375,20 @@
       <c r="A5" s="75">
         <v>3</v>
       </c>
-      <c r="B5" s="128">
-        <v>1</v>
-      </c>
-      <c r="C5" s="129">
-        <v>1</v>
-      </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129">
-        <v>1</v>
-      </c>
-      <c r="F5" s="129">
-        <v>1</v>
-      </c>
-      <c r="G5" s="129"/>
+      <c r="B5" s="124">
+        <v>1</v>
+      </c>
+      <c r="C5" s="125">
+        <v>1</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125">
+        <v>1</v>
+      </c>
+      <c r="F5" s="125">
+        <v>1</v>
+      </c>
+      <c r="G5" s="125"/>
       <c r="H5" s="4">
         <v>1</v>
       </c>
@@ -2398,16 +2398,16 @@
       <c r="A6" s="75">
         <v>4</v>
       </c>
-      <c r="B6" s="128">
-        <v>1</v>
-      </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129">
-        <v>1</v>
-      </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129">
+      <c r="B6" s="124">
+        <v>1</v>
+      </c>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125">
+        <v>1</v>
+      </c>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125">
         <v>1</v>
       </c>
       <c r="H6" s="4">
@@ -2419,18 +2419,18 @@
       <c r="A7" s="75">
         <v>5</v>
       </c>
-      <c r="B7" s="128">
-        <v>1</v>
-      </c>
-      <c r="C7" s="129">
-        <v>1</v>
-      </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129">
-        <v>1</v>
-      </c>
-      <c r="G7" s="129">
+      <c r="B7" s="124">
+        <v>1</v>
+      </c>
+      <c r="C7" s="125">
+        <v>1</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125">
+        <v>1</v>
+      </c>
+      <c r="G7" s="125">
         <v>1</v>
       </c>
       <c r="H7" s="4">
@@ -2442,20 +2442,20 @@
       <c r="A8" s="75">
         <v>6</v>
       </c>
-      <c r="B8" s="128">
-        <v>1</v>
-      </c>
-      <c r="C8" s="129">
-        <v>1</v>
-      </c>
-      <c r="D8" s="129">
-        <v>1</v>
-      </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129">
-        <v>1</v>
-      </c>
-      <c r="G8" s="129">
+      <c r="B8" s="124">
+        <v>1</v>
+      </c>
+      <c r="C8" s="125">
+        <v>1</v>
+      </c>
+      <c r="D8" s="125">
+        <v>1</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125">
+        <v>1</v>
+      </c>
+      <c r="G8" s="125">
         <v>1</v>
       </c>
       <c r="H8" s="4">
@@ -2467,18 +2467,18 @@
       <c r="A9" s="75">
         <v>7</v>
       </c>
-      <c r="B9" s="128">
-        <v>1</v>
-      </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129">
-        <v>1</v>
-      </c>
-      <c r="F9" s="129">
-        <v>1</v>
-      </c>
-      <c r="G9" s="129"/>
+      <c r="B9" s="124">
+        <v>1</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125">
+        <v>1</v>
+      </c>
+      <c r="F9" s="125">
+        <v>1</v>
+      </c>
+      <c r="G9" s="125"/>
       <c r="H9" s="4"/>
       <c r="I9" s="75"/>
     </row>
@@ -2486,22 +2486,22 @@
       <c r="A10" s="75">
         <v>8</v>
       </c>
-      <c r="B10" s="128">
-        <v>1</v>
-      </c>
-      <c r="C10" s="129">
-        <v>1</v>
-      </c>
-      <c r="D10" s="129">
-        <v>1</v>
-      </c>
-      <c r="E10" s="129">
-        <v>1</v>
-      </c>
-      <c r="F10" s="129">
-        <v>1</v>
-      </c>
-      <c r="G10" s="129">
+      <c r="B10" s="124">
+        <v>1</v>
+      </c>
+      <c r="C10" s="125">
+        <v>1</v>
+      </c>
+      <c r="D10" s="125">
+        <v>1</v>
+      </c>
+      <c r="E10" s="125">
+        <v>1</v>
+      </c>
+      <c r="F10" s="125">
+        <v>1</v>
+      </c>
+      <c r="G10" s="125">
         <v>1</v>
       </c>
       <c r="H10" s="4">
@@ -2513,18 +2513,18 @@
       <c r="A11" s="75">
         <v>9</v>
       </c>
-      <c r="B11" s="130">
-        <v>1</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131">
-        <v>1</v>
-      </c>
-      <c r="F11" s="131">
-        <v>1</v>
-      </c>
-      <c r="G11" s="131">
+      <c r="B11" s="126">
+        <v>1</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127">
+        <v>1</v>
+      </c>
+      <c r="F11" s="127">
+        <v>1</v>
+      </c>
+      <c r="G11" s="127">
         <v>1</v>
       </c>
       <c r="H11" s="5">
@@ -2539,27 +2539,27 @@
         <v>9</v>
       </c>
       <c r="C12" s="75">
-        <f>SUM(C2:C11)</f>
+        <f t="shared" ref="C12:H12" si="1">SUM(C2:C11)</f>
         <v>6</v>
       </c>
       <c r="D12" s="75">
-        <f>SUM(D2:D11)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E12" s="75">
-        <f>SUM(E2:E11)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F12" s="75">
-        <f>SUM(F2:F11)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G12" s="75">
-        <f>SUM(G2:G11)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H12" s="75">
-        <f>SUM(H2:H11)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I12" s="75"/>
@@ -2610,10 +2610,10 @@
       <c r="C9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -2650,10 +2650,10 @@
       <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="130"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -2662,10 +2662,10 @@
       <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="130"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -3878,16 +3878,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>0 2</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -4842,16 +4842,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>0 2</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -5331,16 +5331,16 @@
         <f>TRIM(_xlfn.CONCAT(IF(ISBLANK(D2),"",$D$1), " ", IF(ISBLANK(E2),"",$E$1), " ", IF(ISBLANK(F2),"",$F$1), " ", IF(ISBLANK(G2),"",$G$1), " ", IF(ISBLANK(H2),"",$H$1), " ", IF(ISBLANK(I2),"",$I$1), " ", IF(ISBLANK(J2),"",$J$1), " ", IF(ISBLANK(K2),"",$K$1), " ", IF(ISBLANK(L2),"",$L$1)))</f>
         <v>1 3</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="81" t="s">
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -5722,16 +5722,20 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="3.5" customWidth="1"/>
-    <col min="20" max="20" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="9" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -6474,58 +6478,58 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="84">
-        <v>0</v>
-      </c>
-      <c r="E16" s="85">
-        <v>0</v>
-      </c>
-      <c r="F16" s="85">
-        <v>0</v>
-      </c>
-      <c r="G16" s="86">
-        <v>1</v>
-      </c>
-      <c r="H16" s="86">
-        <v>1</v>
-      </c>
-      <c r="I16" s="87">
-        <v>0</v>
-      </c>
-      <c r="J16" s="87">
-        <v>0</v>
-      </c>
-      <c r="K16" s="87">
-        <v>0</v>
-      </c>
-      <c r="L16" s="122">
-        <v>1</v>
-      </c>
-      <c r="M16" s="122">
-        <v>0</v>
-      </c>
-      <c r="N16" s="122">
-        <v>0</v>
-      </c>
-      <c r="O16" s="123">
-        <v>1</v>
-      </c>
-      <c r="P16" s="123">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="123">
-        <v>1</v>
-      </c>
-      <c r="R16" s="85">
-        <v>0</v>
-      </c>
-      <c r="S16" s="124">
+      <c r="D16" s="80">
+        <v>0</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0</v>
+      </c>
+      <c r="F16" s="81">
+        <v>0</v>
+      </c>
+      <c r="G16" s="82">
+        <v>1</v>
+      </c>
+      <c r="H16" s="82">
+        <v>1</v>
+      </c>
+      <c r="I16" s="83">
+        <v>0</v>
+      </c>
+      <c r="J16" s="83">
+        <v>0</v>
+      </c>
+      <c r="K16" s="83">
+        <v>0</v>
+      </c>
+      <c r="L16" s="118">
+        <v>1</v>
+      </c>
+      <c r="M16" s="118">
+        <v>0</v>
+      </c>
+      <c r="N16" s="118">
+        <v>0</v>
+      </c>
+      <c r="O16" s="119">
+        <v>1</v>
+      </c>
+      <c r="P16" s="119">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="119">
+        <v>1</v>
+      </c>
+      <c r="R16" s="81">
+        <v>0</v>
+      </c>
+      <c r="S16" s="120">
         <v>0</v>
       </c>
       <c r="T16" t="str">
@@ -6537,58 +6541,58 @@
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="107">
-        <v>0</v>
-      </c>
-      <c r="E17" s="108">
-        <v>0</v>
-      </c>
-      <c r="F17" s="108">
-        <v>0</v>
-      </c>
-      <c r="G17" s="109">
-        <v>1</v>
-      </c>
-      <c r="H17" s="109">
-        <v>1</v>
-      </c>
-      <c r="I17" s="110">
-        <v>0</v>
-      </c>
-      <c r="J17" s="110">
-        <v>0</v>
-      </c>
-      <c r="K17" s="110">
-        <v>0</v>
-      </c>
-      <c r="L17" s="121">
-        <v>1</v>
-      </c>
-      <c r="M17" s="121">
-        <v>0</v>
-      </c>
-      <c r="N17" s="121">
-        <v>1</v>
-      </c>
-      <c r="O17" s="120">
-        <v>1</v>
-      </c>
-      <c r="P17" s="120">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="120">
-        <v>1</v>
-      </c>
-      <c r="R17" s="108">
-        <v>0</v>
-      </c>
-      <c r="S17" s="125">
+      <c r="D17" s="103">
+        <v>0</v>
+      </c>
+      <c r="E17" s="104">
+        <v>0</v>
+      </c>
+      <c r="F17" s="104">
+        <v>0</v>
+      </c>
+      <c r="G17" s="105">
+        <v>1</v>
+      </c>
+      <c r="H17" s="105">
+        <v>1</v>
+      </c>
+      <c r="I17" s="106">
+        <v>0</v>
+      </c>
+      <c r="J17" s="106">
+        <v>0</v>
+      </c>
+      <c r="K17" s="106">
+        <v>0</v>
+      </c>
+      <c r="L17" s="117">
+        <v>1</v>
+      </c>
+      <c r="M17" s="117">
+        <v>0</v>
+      </c>
+      <c r="N17" s="117">
+        <v>1</v>
+      </c>
+      <c r="O17" s="116">
+        <v>1</v>
+      </c>
+      <c r="P17" s="116">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="116">
+        <v>1</v>
+      </c>
+      <c r="R17" s="104">
+        <v>0</v>
+      </c>
+      <c r="S17" s="121">
         <v>0</v>
       </c>
       <c r="T17" t="str">
@@ -6600,58 +6604,58 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="90">
-        <v>1</v>
-      </c>
-      <c r="E18" s="91">
-        <v>0</v>
-      </c>
-      <c r="F18" s="91">
-        <v>0</v>
-      </c>
-      <c r="G18" s="91">
-        <v>1</v>
-      </c>
-      <c r="H18" s="91">
-        <v>1</v>
-      </c>
-      <c r="I18" s="92">
-        <v>0</v>
-      </c>
-      <c r="J18" s="92">
-        <v>0</v>
-      </c>
-      <c r="K18" s="92">
-        <v>1</v>
-      </c>
-      <c r="L18" s="93">
-        <v>1</v>
-      </c>
-      <c r="M18" s="93">
-        <v>1</v>
-      </c>
-      <c r="N18" s="93">
-        <v>0</v>
-      </c>
-      <c r="O18" s="94">
-        <v>0</v>
-      </c>
-      <c r="P18" s="94">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="94">
-        <v>1</v>
-      </c>
-      <c r="R18" s="95">
-        <v>0</v>
-      </c>
-      <c r="S18" s="96">
+      <c r="D18" s="86">
+        <v>1</v>
+      </c>
+      <c r="E18" s="87">
+        <v>0</v>
+      </c>
+      <c r="F18" s="87">
+        <v>0</v>
+      </c>
+      <c r="G18" s="87">
+        <v>1</v>
+      </c>
+      <c r="H18" s="87">
+        <v>1</v>
+      </c>
+      <c r="I18" s="88">
+        <v>0</v>
+      </c>
+      <c r="J18" s="88">
+        <v>0</v>
+      </c>
+      <c r="K18" s="88">
+        <v>1</v>
+      </c>
+      <c r="L18" s="89">
+        <v>1</v>
+      </c>
+      <c r="M18" s="89">
+        <v>1</v>
+      </c>
+      <c r="N18" s="89">
+        <v>0</v>
+      </c>
+      <c r="O18" s="90">
+        <v>0</v>
+      </c>
+      <c r="P18" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="90">
+        <v>1</v>
+      </c>
+      <c r="R18" s="91">
+        <v>0</v>
+      </c>
+      <c r="S18" s="92">
         <v>0</v>
       </c>
       <c r="T18" t="str">
@@ -6663,56 +6667,56 @@
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90">
-        <v>1</v>
-      </c>
-      <c r="E19" s="91">
-        <v>0</v>
-      </c>
-      <c r="F19" s="91">
-        <v>1</v>
-      </c>
-      <c r="G19" s="91">
-        <v>1</v>
-      </c>
-      <c r="H19" s="91">
-        <v>1</v>
-      </c>
-      <c r="I19" s="92">
-        <v>0</v>
-      </c>
-      <c r="J19" s="92">
-        <v>1</v>
-      </c>
-      <c r="K19" s="92">
-        <v>1</v>
-      </c>
-      <c r="L19" s="93">
-        <v>0</v>
-      </c>
-      <c r="M19" s="93">
-        <v>0</v>
-      </c>
-      <c r="N19" s="93">
-        <v>1</v>
-      </c>
-      <c r="O19" s="94">
-        <v>1</v>
-      </c>
-      <c r="P19" s="94">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="94">
-        <v>1</v>
-      </c>
-      <c r="R19" s="95">
-        <v>0</v>
-      </c>
-      <c r="S19" s="96">
+      <c r="C19" s="85"/>
+      <c r="D19" s="86">
+        <v>1</v>
+      </c>
+      <c r="E19" s="87">
+        <v>0</v>
+      </c>
+      <c r="F19" s="87">
+        <v>1</v>
+      </c>
+      <c r="G19" s="87">
+        <v>1</v>
+      </c>
+      <c r="H19" s="87">
+        <v>1</v>
+      </c>
+      <c r="I19" s="88">
+        <v>0</v>
+      </c>
+      <c r="J19" s="88">
+        <v>1</v>
+      </c>
+      <c r="K19" s="88">
+        <v>1</v>
+      </c>
+      <c r="L19" s="89">
+        <v>0</v>
+      </c>
+      <c r="M19" s="89">
+        <v>0</v>
+      </c>
+      <c r="N19" s="89">
+        <v>1</v>
+      </c>
+      <c r="O19" s="90">
+        <v>1</v>
+      </c>
+      <c r="P19" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="90">
+        <v>1</v>
+      </c>
+      <c r="R19" s="91">
+        <v>0</v>
+      </c>
+      <c r="S19" s="92">
         <v>0</v>
       </c>
       <c r="T19" t="str">
@@ -6724,58 +6728,58 @@
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="112">
-        <v>0</v>
-      </c>
-      <c r="E20" s="113">
-        <v>0</v>
-      </c>
-      <c r="F20" s="113">
-        <v>0</v>
-      </c>
-      <c r="G20" s="114">
-        <v>1</v>
-      </c>
-      <c r="H20" s="114">
-        <v>1</v>
-      </c>
-      <c r="I20" s="115">
-        <v>1</v>
-      </c>
-      <c r="J20" s="115">
-        <v>0</v>
-      </c>
-      <c r="K20" s="115">
-        <v>1</v>
-      </c>
-      <c r="L20" s="116">
-        <v>0</v>
-      </c>
-      <c r="M20" s="116">
-        <v>0</v>
-      </c>
-      <c r="N20" s="116">
-        <v>0</v>
-      </c>
-      <c r="O20" s="132">
-        <v>0</v>
-      </c>
-      <c r="P20" s="132">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="132">
-        <v>1</v>
-      </c>
-      <c r="R20" s="113">
-        <v>0</v>
-      </c>
-      <c r="S20" s="119">
+      <c r="D20" s="108">
+        <v>0</v>
+      </c>
+      <c r="E20" s="109">
+        <v>0</v>
+      </c>
+      <c r="F20" s="109">
+        <v>0</v>
+      </c>
+      <c r="G20" s="110">
+        <v>1</v>
+      </c>
+      <c r="H20" s="110">
+        <v>1</v>
+      </c>
+      <c r="I20" s="111">
+        <v>1</v>
+      </c>
+      <c r="J20" s="111">
+        <v>0</v>
+      </c>
+      <c r="K20" s="111">
+        <v>1</v>
+      </c>
+      <c r="L20" s="112">
+        <v>0</v>
+      </c>
+      <c r="M20" s="112">
+        <v>0</v>
+      </c>
+      <c r="N20" s="112">
+        <v>0</v>
+      </c>
+      <c r="O20" s="128">
+        <v>0</v>
+      </c>
+      <c r="P20" s="128">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="128">
+        <v>1</v>
+      </c>
+      <c r="R20" s="109">
+        <v>0</v>
+      </c>
+      <c r="S20" s="115">
         <v>0</v>
       </c>
       <c r="T20" t="str">
@@ -6787,58 +6791,58 @@
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="107">
-        <v>0</v>
-      </c>
-      <c r="E21" s="108">
-        <v>0</v>
-      </c>
-      <c r="F21" s="108">
-        <v>0</v>
-      </c>
-      <c r="G21" s="109">
-        <v>1</v>
-      </c>
-      <c r="H21" s="109">
-        <v>1</v>
-      </c>
-      <c r="I21" s="110">
-        <v>0</v>
-      </c>
-      <c r="J21" s="110">
-        <v>0</v>
-      </c>
-      <c r="K21" s="110">
-        <v>0</v>
-      </c>
-      <c r="L21" s="121">
-        <v>1</v>
-      </c>
-      <c r="M21" s="121">
-        <v>0</v>
-      </c>
-      <c r="N21" s="121">
-        <v>1</v>
-      </c>
-      <c r="O21" s="120">
-        <v>1</v>
-      </c>
-      <c r="P21" s="120">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="120">
-        <v>1</v>
-      </c>
-      <c r="R21" s="108">
-        <v>0</v>
-      </c>
-      <c r="S21" s="125">
+      <c r="D21" s="103">
+        <v>0</v>
+      </c>
+      <c r="E21" s="104">
+        <v>0</v>
+      </c>
+      <c r="F21" s="104">
+        <v>0</v>
+      </c>
+      <c r="G21" s="105">
+        <v>1</v>
+      </c>
+      <c r="H21" s="105">
+        <v>1</v>
+      </c>
+      <c r="I21" s="106">
+        <v>0</v>
+      </c>
+      <c r="J21" s="106">
+        <v>0</v>
+      </c>
+      <c r="K21" s="106">
+        <v>0</v>
+      </c>
+      <c r="L21" s="117">
+        <v>1</v>
+      </c>
+      <c r="M21" s="117">
+        <v>0</v>
+      </c>
+      <c r="N21" s="117">
+        <v>1</v>
+      </c>
+      <c r="O21" s="116">
+        <v>1</v>
+      </c>
+      <c r="P21" s="116">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="116">
+        <v>1</v>
+      </c>
+      <c r="R21" s="104">
+        <v>0</v>
+      </c>
+      <c r="S21" s="121">
         <v>0</v>
       </c>
       <c r="T21" t="str">
@@ -6850,58 +6854,58 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="90">
-        <v>1</v>
-      </c>
-      <c r="E22" s="91">
-        <v>0</v>
-      </c>
-      <c r="F22" s="91">
-        <v>1</v>
-      </c>
-      <c r="G22" s="91">
-        <v>1</v>
-      </c>
-      <c r="H22" s="91">
-        <v>1</v>
-      </c>
-      <c r="I22" s="92">
-        <v>0</v>
-      </c>
-      <c r="J22" s="92">
-        <v>0</v>
-      </c>
-      <c r="K22" s="92">
-        <v>1</v>
-      </c>
-      <c r="L22" s="93">
-        <v>1</v>
-      </c>
-      <c r="M22" s="93">
-        <v>1</v>
-      </c>
-      <c r="N22" s="93">
-        <v>0</v>
-      </c>
-      <c r="O22" s="94">
-        <v>0</v>
-      </c>
-      <c r="P22" s="94">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="94">
-        <v>1</v>
-      </c>
-      <c r="R22" s="95">
-        <v>0</v>
-      </c>
-      <c r="S22" s="96">
+      <c r="D22" s="86">
+        <v>1</v>
+      </c>
+      <c r="E22" s="87">
+        <v>0</v>
+      </c>
+      <c r="F22" s="87">
+        <v>1</v>
+      </c>
+      <c r="G22" s="87">
+        <v>1</v>
+      </c>
+      <c r="H22" s="87">
+        <v>1</v>
+      </c>
+      <c r="I22" s="88">
+        <v>0</v>
+      </c>
+      <c r="J22" s="88">
+        <v>0</v>
+      </c>
+      <c r="K22" s="88">
+        <v>1</v>
+      </c>
+      <c r="L22" s="89">
+        <v>1</v>
+      </c>
+      <c r="M22" s="89">
+        <v>1</v>
+      </c>
+      <c r="N22" s="89">
+        <v>0</v>
+      </c>
+      <c r="O22" s="90">
+        <v>0</v>
+      </c>
+      <c r="P22" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="90">
+        <v>1</v>
+      </c>
+      <c r="R22" s="91">
+        <v>0</v>
+      </c>
+      <c r="S22" s="92">
         <v>0</v>
       </c>
       <c r="T22" t="str">
@@ -6913,119 +6917,119 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90">
-        <v>1</v>
-      </c>
-      <c r="E23" s="91">
-        <v>0</v>
-      </c>
-      <c r="F23" s="91">
-        <v>1</v>
-      </c>
-      <c r="G23" s="91">
-        <v>1</v>
-      </c>
-      <c r="H23" s="91">
-        <v>1</v>
-      </c>
-      <c r="I23" s="92">
-        <v>0</v>
-      </c>
-      <c r="J23" s="92">
-        <v>0</v>
-      </c>
-      <c r="K23" s="92">
-        <v>1</v>
-      </c>
-      <c r="L23" s="93">
-        <v>0</v>
-      </c>
-      <c r="M23" s="93">
-        <v>1</v>
-      </c>
-      <c r="N23" s="93">
-        <v>0</v>
-      </c>
-      <c r="O23" s="94">
-        <v>1</v>
-      </c>
-      <c r="P23" s="94">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="94">
-        <v>1</v>
-      </c>
-      <c r="R23" s="95">
-        <v>0</v>
-      </c>
-      <c r="S23" s="96">
+      <c r="C23" s="85"/>
+      <c r="D23" s="86">
+        <v>1</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0</v>
+      </c>
+      <c r="F23" s="87">
+        <v>1</v>
+      </c>
+      <c r="G23" s="87">
+        <v>1</v>
+      </c>
+      <c r="H23" s="87">
+        <v>1</v>
+      </c>
+      <c r="I23" s="88">
+        <v>0</v>
+      </c>
+      <c r="J23" s="88">
+        <v>1</v>
+      </c>
+      <c r="K23" s="88">
+        <v>0</v>
+      </c>
+      <c r="L23" s="89">
+        <v>0</v>
+      </c>
+      <c r="M23" s="89">
+        <v>0</v>
+      </c>
+      <c r="N23" s="89">
+        <v>1</v>
+      </c>
+      <c r="O23" s="90">
+        <v>1</v>
+      </c>
+      <c r="P23" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="90">
+        <v>1</v>
+      </c>
+      <c r="R23" s="91">
+        <v>0</v>
+      </c>
+      <c r="S23" s="92">
         <v>0</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="0"/>
-        <v>B95C</v>
+        <v>BA3C</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="112">
-        <v>0</v>
-      </c>
-      <c r="E24" s="113">
-        <v>0</v>
-      </c>
-      <c r="F24" s="113">
-        <v>0</v>
-      </c>
-      <c r="G24" s="114">
-        <v>1</v>
-      </c>
-      <c r="H24" s="114">
-        <v>1</v>
-      </c>
-      <c r="I24" s="115">
-        <v>1</v>
-      </c>
-      <c r="J24" s="115">
-        <v>0</v>
-      </c>
-      <c r="K24" s="115">
-        <v>1</v>
-      </c>
-      <c r="L24" s="116">
-        <v>0</v>
-      </c>
-      <c r="M24" s="116">
-        <v>0</v>
-      </c>
-      <c r="N24" s="116">
-        <v>0</v>
-      </c>
-      <c r="O24" s="132">
-        <v>1</v>
-      </c>
-      <c r="P24" s="132">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="132">
-        <v>0</v>
-      </c>
-      <c r="R24" s="113">
-        <v>0</v>
-      </c>
-      <c r="S24" s="119">
+      <c r="D24" s="108">
+        <v>0</v>
+      </c>
+      <c r="E24" s="109">
+        <v>0</v>
+      </c>
+      <c r="F24" s="109">
+        <v>0</v>
+      </c>
+      <c r="G24" s="110">
+        <v>1</v>
+      </c>
+      <c r="H24" s="110">
+        <v>1</v>
+      </c>
+      <c r="I24" s="111">
+        <v>1</v>
+      </c>
+      <c r="J24" s="111">
+        <v>0</v>
+      </c>
+      <c r="K24" s="111">
+        <v>1</v>
+      </c>
+      <c r="L24" s="112">
+        <v>0</v>
+      </c>
+      <c r="M24" s="112">
+        <v>0</v>
+      </c>
+      <c r="N24" s="112">
+        <v>0</v>
+      </c>
+      <c r="O24" s="128">
+        <v>1</v>
+      </c>
+      <c r="P24" s="128">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="128">
+        <v>0</v>
+      </c>
+      <c r="R24" s="109">
+        <v>0</v>
+      </c>
+      <c r="S24" s="115">
         <v>0</v>
       </c>
       <c r="T24" t="str">
@@ -7037,63 +7041,63 @@
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="99">
-        <v>0</v>
-      </c>
-      <c r="E25" s="100">
-        <v>0</v>
-      </c>
-      <c r="F25" s="100">
-        <v>0</v>
-      </c>
-      <c r="G25" s="101">
-        <v>1</v>
-      </c>
-      <c r="H25" s="101">
-        <v>1</v>
-      </c>
-      <c r="I25" s="102">
-        <v>1</v>
-      </c>
-      <c r="J25" s="102">
-        <v>0</v>
-      </c>
-      <c r="K25" s="102">
-        <v>1</v>
-      </c>
-      <c r="L25" s="103">
-        <v>0</v>
-      </c>
-      <c r="M25" s="103">
-        <v>0</v>
-      </c>
-      <c r="N25" s="103">
-        <v>0</v>
-      </c>
-      <c r="O25" s="104">
-        <v>1</v>
-      </c>
-      <c r="P25" s="104">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="104">
-        <v>1</v>
-      </c>
-      <c r="R25" s="100">
-        <v>0</v>
-      </c>
-      <c r="S25" s="105">
+      <c r="D25" s="95">
+        <v>0</v>
+      </c>
+      <c r="E25" s="96">
+        <v>0</v>
+      </c>
+      <c r="F25" s="96">
+        <v>0</v>
+      </c>
+      <c r="G25" s="97">
+        <v>1</v>
+      </c>
+      <c r="H25" s="97">
+        <v>1</v>
+      </c>
+      <c r="I25" s="98">
+        <v>1</v>
+      </c>
+      <c r="J25" s="98">
+        <v>0</v>
+      </c>
+      <c r="K25" s="98">
+        <v>0</v>
+      </c>
+      <c r="L25" s="99">
+        <v>0</v>
+      </c>
+      <c r="M25" s="99">
+        <v>0</v>
+      </c>
+      <c r="N25" s="99">
+        <v>0</v>
+      </c>
+      <c r="O25" s="100">
+        <v>1</v>
+      </c>
+      <c r="P25" s="100">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="100">
+        <v>1</v>
+      </c>
+      <c r="R25" s="96">
+        <v>0</v>
+      </c>
+      <c r="S25" s="101">
         <v>0</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="0"/>
-        <v>1D1C</v>
+        <v>1C1C</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
